--- a/analysis/paper-2013-10/table1-2-regression/V31/SI_Table15_Murray_1800_noeng.xlsx
+++ b/analysis/paper-2013-10/table1-2-regression/V31/SI_Table15_Murray_1800_noeng.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="14320" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Murray_Format" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
   <si>
     <t/>
   </si>
@@ -401,48 +401,6 @@
     <t>ara</t>
   </si>
   <si>
-    <t>-8.880***</t>
-  </si>
-  <si>
-    <t>0.743**</t>
-  </si>
-  <si>
-    <t>0.367**</t>
-  </si>
-  <si>
-    <t>-8.869**</t>
-  </si>
-  <si>
-    <t>0.841***</t>
-  </si>
-  <si>
-    <t>0.840***</t>
-  </si>
-  <si>
-    <t>0.318*</t>
-  </si>
-  <si>
-    <t>2.009***</t>
-  </si>
-  <si>
-    <t>2.006**</t>
-  </si>
-  <si>
-    <t>1.646*</t>
-  </si>
-  <si>
-    <t>2.150***</t>
-  </si>
-  <si>
-    <t>1.919**</t>
-  </si>
-  <si>
-    <t>2.675***</t>
-  </si>
-  <si>
-    <t>2.200***</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Number of illustrious people born 1800-1950 per language,
 based on inclusion in </t>
@@ -462,6 +420,54 @@
       </rPr>
       <t xml:space="preserve"> English excluded.</t>
     </r>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>-8.843***</t>
+  </si>
+  <si>
+    <t>0.792***</t>
+  </si>
+  <si>
+    <t>0.439**</t>
+  </si>
+  <si>
+    <t>-8.937***</t>
+  </si>
+  <si>
+    <t>-2.876*</t>
+  </si>
+  <si>
+    <t>0.821***</t>
+  </si>
+  <si>
+    <t>0.831***</t>
+  </si>
+  <si>
+    <t>0.339**</t>
+  </si>
+  <si>
+    <t>2.014***</t>
+  </si>
+  <si>
+    <t>2.036***</t>
+  </si>
+  <si>
+    <t>1.567*</t>
+  </si>
+  <si>
+    <t>2.032***</t>
+  </si>
+  <si>
+    <t>1.567**</t>
+  </si>
+  <si>
+    <t>2.565***</t>
+  </si>
+  <si>
+    <t>2.029***</t>
   </si>
 </sst>
 </file>
@@ -649,9 +655,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="356">
+  <cellStyleXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1128,7 +1138,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="356">
+  <cellStyles count="360">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1306,6 +1316,8 @@
     <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1483,6 +1495,8 @@
     <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1815,7 +1829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:H23"/>
     </sheetView>
   </sheetViews>
@@ -1862,7 +1876,7 @@
     <row r="4" spans="1:8" ht="32" customHeight="1" thickBot="1">
       <c r="A4" s="7"/>
       <c r="B4" s="35" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -1887,22 +1901,22 @@
       </c>
       <c r="B6" s="23" t="str">
         <f>Regression_Orig!B4</f>
-        <v>0.841***</v>
+        <v>0.821***</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="str">
         <f>Regression_Orig!F4</f>
-        <v>0.840***</v>
+        <v>0.831***</v>
       </c>
       <c r="G6" s="23">
         <f>Regression_Orig!G4</f>
-        <v>0.13400000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="H6" s="23" t="str">
         <f>Regression_Orig!H4</f>
-        <v>0.318*</v>
+        <v>0.339**</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1911,22 +1925,22 @@
       </c>
       <c r="B7" s="6">
         <f>Regression_Orig!B5</f>
-        <v>-0.155</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
         <f>Regression_Orig!F5</f>
-        <v>-0.19500000000000001</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="G7" s="6">
         <f>Regression_Orig!G5</f>
-        <v>-0.247</v>
+        <v>-0.23200000000000001</v>
       </c>
       <c r="H7" s="6">
         <f>Regression_Orig!H5</f>
-        <v>-0.11899999999999999</v>
+        <v>-0.10100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17">
@@ -1935,22 +1949,22 @@
       </c>
       <c r="B8" s="23" t="str">
         <f>Regression_Orig!B6</f>
-        <v>2.009***</v>
+        <v>2.014***</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="str">
         <f>Regression_Orig!F6</f>
-        <v>2.006**</v>
+        <v>2.036***</v>
       </c>
       <c r="G8" s="23">
         <f>Regression_Orig!G6</f>
-        <v>0.17699999999999999</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="H8" s="23">
         <f>Regression_Orig!H6</f>
-        <v>0.47199999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1959,22 +1973,22 @@
       </c>
       <c r="B9" s="6">
         <f>Regression_Orig!B7</f>
-        <v>-0.46600000000000003</v>
+        <v>-0.41899999999999998</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
         <f>Regression_Orig!F7</f>
-        <v>-0.53300000000000003</v>
+        <v>-0.47899999999999998</v>
       </c>
       <c r="G9" s="6">
         <f>Regression_Orig!G7</f>
-        <v>-0.66800000000000004</v>
+        <v>-0.628</v>
       </c>
       <c r="H9" s="6">
         <f>Regression_Orig!H7</f>
-        <v>-0.35299999999999998</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1984,13 +1998,13 @@
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="str">
         <f>Regression_Orig!C8</f>
-        <v>1.646*</v>
+        <v>1.567*</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23">
         <f>Regression_Orig!F8</f>
-        <v>7.0000000000000001E-3</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
@@ -2002,13 +2016,13 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6">
         <f>Regression_Orig!C9</f>
-        <v>-0.69399999999999995</v>
+        <v>-0.65600000000000003</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
         <f>Regression_Orig!F9</f>
-        <v>-0.65</v>
+        <v>-0.58399999999999996</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2021,13 +2035,13 @@
       <c r="C12" s="23"/>
       <c r="D12" s="23" t="str">
         <f>Regression_Orig!D10</f>
-        <v>2.150***</v>
+        <v>2.032***</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="str">
         <f>Regression_Orig!G10</f>
-        <v>1.919**</v>
+        <v>1.567**</v>
       </c>
       <c r="H12" s="23"/>
     </row>
@@ -2039,13 +2053,13 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6">
         <f>Regression_Orig!D11</f>
-        <v>-0.28199999999999997</v>
+        <v>-0.26900000000000002</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
         <f>Regression_Orig!G11</f>
-        <v>-0.57099999999999995</v>
+        <v>-0.53600000000000003</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -2058,13 +2072,13 @@
       <c r="D14" s="23"/>
       <c r="E14" s="23" t="str">
         <f>Regression_Orig!E12</f>
-        <v>2.675***</v>
+        <v>2.565***</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="str">
         <f>Regression_Orig!H12</f>
-        <v>2.200***</v>
+        <v>2.029***</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2074,13 +2088,13 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6">
         <f>Regression_Orig!E13</f>
-        <v>-0.27100000000000002</v>
+        <v>-0.24399999999999999</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
         <f>Regression_Orig!H13</f>
-        <v>-0.32500000000000001</v>
+        <v>-0.27600000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2089,62 +2103,62 @@
       </c>
       <c r="B16" s="23" t="str">
         <f>Regression_Orig!B2</f>
-        <v>-8.880***</v>
+        <v>-8.843***</v>
       </c>
       <c r="C16" s="23" t="str">
         <f>Regression_Orig!C2</f>
-        <v>0.743**</v>
+        <v>0.792***</v>
       </c>
       <c r="D16" s="23" t="str">
         <f>Regression_Orig!D2</f>
-        <v>0.367**</v>
+        <v>0.439**</v>
       </c>
       <c r="E16" s="23">
         <f>Regression_Orig!E2</f>
-        <v>-7.4999999999999997E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F16" s="23" t="str">
         <f>Regression_Orig!F2</f>
-        <v>-8.869**</v>
+        <v>-8.937***</v>
       </c>
       <c r="G16" s="23">
         <f>Regression_Orig!G2</f>
-        <v>-0.53</v>
-      </c>
-      <c r="H16" s="23">
+        <v>-2.0249999999999999</v>
+      </c>
+      <c r="H16" s="23" t="str">
         <f>Regression_Orig!H2</f>
-        <v>-2.4089999999999998</v>
+        <v>-2.876*</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8"/>
       <c r="B17" s="5">
         <f>Regression_Orig!B3</f>
-        <v>-2.1890000000000001</v>
+        <v>-1.9690000000000001</v>
       </c>
       <c r="C17" s="5">
         <f>Regression_Orig!C3</f>
-        <v>-0.21299999999999999</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="D17" s="5">
         <f>Regression_Orig!D3</f>
-        <v>-0.127</v>
+        <v>-0.121</v>
       </c>
       <c r="E17" s="5">
         <f>Regression_Orig!E3</f>
-        <v>-0.13900000000000001</v>
+        <v>-0.125</v>
       </c>
       <c r="F17" s="5">
         <f>Regression_Orig!F3</f>
-        <v>-2.4740000000000002</v>
+        <v>-2.2240000000000002</v>
       </c>
       <c r="G17" s="5">
         <f>Regression_Orig!G3</f>
-        <v>-3.0790000000000002</v>
+        <v>-2.891</v>
       </c>
       <c r="H17" s="5">
         <f>Regression_Orig!H3</f>
-        <v>-1.5920000000000001</v>
+        <v>-1.353</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2190,7 +2204,7 @@
       </c>
       <c r="C19" s="3">
         <f>Regression_Orig!C18</f>
-        <v>2.5999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D19" s="3">
         <f>Regression_Orig!D18</f>
@@ -2219,31 +2233,31 @@
       </c>
       <c r="B20" s="3">
         <f>Regression_Orig!B15</f>
-        <v>0.56799999999999995</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="C20" s="3">
         <f>Regression_Orig!C15</f>
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="D20" s="3">
         <f>Regression_Orig!D15</f>
-        <v>0.70799999999999996</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="E20" s="3">
         <f>Regression_Orig!E15</f>
-        <v>0.80200000000000005</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="F20" s="3">
         <f>Regression_Orig!F15</f>
-        <v>0.56799999999999995</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="G20" s="3">
         <f>Regression_Orig!G15</f>
-        <v>0.71499999999999997</v>
+        <v>0.72</v>
       </c>
       <c r="H20" s="3">
         <f>Regression_Orig!H15</f>
-        <v>0.86</v>
+        <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2252,31 +2266,31 @@
       </c>
       <c r="B21" s="16">
         <f>Regression_Orig!B16</f>
-        <v>0.53100000000000003</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="C21" s="16">
         <f>Regression_Orig!C16</f>
-        <v>0.156</v>
+        <v>0.158</v>
       </c>
       <c r="D21" s="16">
         <f>Regression_Orig!D16</f>
-        <v>0.69599999999999995</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="E21" s="16">
         <f>Regression_Orig!E16</f>
-        <v>0.79400000000000004</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="F21" s="16">
         <f>Regression_Orig!F16</f>
-        <v>0.50900000000000001</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="G21" s="16">
         <f>Regression_Orig!G16</f>
-        <v>0.67600000000000005</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="H21" s="16">
         <f>Regression_Orig!H16</f>
-        <v>0.84099999999999997</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="7" customHeight="1">
@@ -2377,22 +2391,22 @@
       </c>
       <c r="B6" s="23" t="str">
         <f>Regression_Orig!B4</f>
-        <v>0.841***</v>
+        <v>0.821***</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="str">
         <f>Regression_Orig!F4</f>
-        <v>0.840***</v>
+        <v>0.831***</v>
       </c>
       <c r="G6" s="23">
         <f>Regression_Orig!G4</f>
-        <v>0.13400000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="H6" s="23" t="str">
         <f>Regression_Orig!H4</f>
-        <v>0.318*</v>
+        <v>0.339**</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2401,22 +2415,22 @@
       </c>
       <c r="B7" s="6">
         <f>Regression_Orig!B5</f>
-        <v>-0.155</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
         <f>Regression_Orig!F5</f>
-        <v>-0.19500000000000001</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="G7" s="6">
         <f>Regression_Orig!G5</f>
-        <v>-0.247</v>
+        <v>-0.23200000000000001</v>
       </c>
       <c r="H7" s="6">
         <f>Regression_Orig!H5</f>
-        <v>-0.11899999999999999</v>
+        <v>-0.10100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17">
@@ -2425,22 +2439,22 @@
       </c>
       <c r="B8" s="23" t="str">
         <f>Regression_Orig!B6</f>
-        <v>2.009***</v>
+        <v>2.014***</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="str">
         <f>Regression_Orig!F6</f>
-        <v>2.006**</v>
+        <v>2.036***</v>
       </c>
       <c r="G8" s="23">
         <f>Regression_Orig!G6</f>
-        <v>0.17699999999999999</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="H8" s="23">
         <f>Regression_Orig!H6</f>
-        <v>0.47199999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2449,22 +2463,22 @@
       </c>
       <c r="B9" s="6">
         <f>Regression_Orig!B7</f>
-        <v>-0.46600000000000003</v>
+        <v>-0.41899999999999998</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
         <f>Regression_Orig!F7</f>
-        <v>-0.53300000000000003</v>
+        <v>-0.47899999999999998</v>
       </c>
       <c r="G9" s="6">
         <f>Regression_Orig!G7</f>
-        <v>-0.66800000000000004</v>
+        <v>-0.628</v>
       </c>
       <c r="H9" s="6">
         <f>Regression_Orig!H7</f>
-        <v>-0.35299999999999998</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2474,13 +2488,13 @@
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="str">
         <f>Regression_Orig!C8</f>
-        <v>1.646*</v>
+        <v>1.567*</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23">
         <f>Regression_Orig!F8</f>
-        <v>7.0000000000000001E-3</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
@@ -2492,13 +2506,13 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6">
         <f>Regression_Orig!C9</f>
-        <v>-0.69399999999999995</v>
+        <v>-0.65600000000000003</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
         <f>Regression_Orig!F9</f>
-        <v>-0.65</v>
+        <v>-0.58399999999999996</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2511,13 +2525,13 @@
       <c r="C12" s="23"/>
       <c r="D12" s="23" t="str">
         <f>Regression_Orig!D10</f>
-        <v>2.150***</v>
+        <v>2.032***</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="str">
         <f>Regression_Orig!G10</f>
-        <v>1.919**</v>
+        <v>1.567**</v>
       </c>
       <c r="H12" s="23"/>
     </row>
@@ -2529,13 +2543,13 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6">
         <f>Regression_Orig!D11</f>
-        <v>-0.28199999999999997</v>
+        <v>-0.26900000000000002</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
         <f>Regression_Orig!G11</f>
-        <v>-0.57099999999999995</v>
+        <v>-0.53600000000000003</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -2548,13 +2562,13 @@
       <c r="D14" s="23"/>
       <c r="E14" s="23" t="str">
         <f>Regression_Orig!E12</f>
-        <v>2.675***</v>
+        <v>2.565***</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="str">
         <f>Regression_Orig!H12</f>
-        <v>2.200***</v>
+        <v>2.029***</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2564,13 +2578,13 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6">
         <f>Regression_Orig!E13</f>
-        <v>-0.27100000000000002</v>
+        <v>-0.24399999999999999</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
         <f>Regression_Orig!H13</f>
-        <v>-0.32500000000000001</v>
+        <v>-0.27600000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2579,62 +2593,62 @@
       </c>
       <c r="B16" s="23" t="str">
         <f>Regression_Orig!B2</f>
-        <v>-8.880***</v>
+        <v>-8.843***</v>
       </c>
       <c r="C16" s="23" t="str">
         <f>Regression_Orig!C2</f>
-        <v>0.743**</v>
+        <v>0.792***</v>
       </c>
       <c r="D16" s="23" t="str">
         <f>Regression_Orig!D2</f>
-        <v>0.367**</v>
+        <v>0.439**</v>
       </c>
       <c r="E16" s="23">
         <f>Regression_Orig!E2</f>
-        <v>-7.4999999999999997E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F16" s="23" t="str">
         <f>Regression_Orig!F2</f>
-        <v>-8.869**</v>
+        <v>-8.937***</v>
       </c>
       <c r="G16" s="23">
         <f>Regression_Orig!G2</f>
-        <v>-0.53</v>
-      </c>
-      <c r="H16" s="23">
+        <v>-2.0249999999999999</v>
+      </c>
+      <c r="H16" s="23" t="str">
         <f>Regression_Orig!H2</f>
-        <v>-2.4089999999999998</v>
+        <v>-2.876*</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8"/>
       <c r="B17" s="5">
         <f>Regression_Orig!B3</f>
-        <v>-2.1890000000000001</v>
+        <v>-1.9690000000000001</v>
       </c>
       <c r="C17" s="5">
         <f>Regression_Orig!C3</f>
-        <v>-0.21299999999999999</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="D17" s="5">
         <f>Regression_Orig!D3</f>
-        <v>-0.127</v>
+        <v>-0.121</v>
       </c>
       <c r="E17" s="5">
         <f>Regression_Orig!E3</f>
-        <v>-0.13900000000000001</v>
+        <v>-0.125</v>
       </c>
       <c r="F17" s="5">
         <f>Regression_Orig!F3</f>
-        <v>-2.4740000000000002</v>
+        <v>-2.2240000000000002</v>
       </c>
       <c r="G17" s="5">
         <f>Regression_Orig!G3</f>
-        <v>-3.0790000000000002</v>
+        <v>-2.891</v>
       </c>
       <c r="H17" s="5">
         <f>Regression_Orig!H3</f>
-        <v>-1.5920000000000001</v>
+        <v>-1.353</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2680,7 +2694,7 @@
       </c>
       <c r="C19" s="3">
         <f>Regression_Orig!C18</f>
-        <v>2.5999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D19" s="3">
         <f>Regression_Orig!D18</f>
@@ -2709,31 +2723,31 @@
       </c>
       <c r="B20" s="3">
         <f>Regression_Orig!B15</f>
-        <v>0.56799999999999995</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="C20" s="3">
         <f>Regression_Orig!C15</f>
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="D20" s="3">
         <f>Regression_Orig!D15</f>
-        <v>0.70799999999999996</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="E20" s="3">
         <f>Regression_Orig!E15</f>
-        <v>0.80200000000000005</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="F20" s="3">
         <f>Regression_Orig!F15</f>
-        <v>0.56799999999999995</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="G20" s="3">
         <f>Regression_Orig!G15</f>
-        <v>0.71499999999999997</v>
+        <v>0.72</v>
       </c>
       <c r="H20" s="3">
         <f>Regression_Orig!H15</f>
-        <v>0.86</v>
+        <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2742,31 +2756,31 @@
       </c>
       <c r="B21" s="16">
         <f>Regression_Orig!B16</f>
-        <v>0.53100000000000003</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="C21" s="16">
         <f>Regression_Orig!C16</f>
-        <v>0.156</v>
+        <v>0.158</v>
       </c>
       <c r="D21" s="16">
         <f>Regression_Orig!D16</f>
-        <v>0.69599999999999995</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="E21" s="16">
         <f>Regression_Orig!E16</f>
-        <v>0.79400000000000004</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="F21" s="16">
         <f>Regression_Orig!F16</f>
-        <v>0.50900000000000001</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="G21" s="16">
         <f>Regression_Orig!G16</f>
-        <v>0.67600000000000005</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="H21" s="16">
         <f>Regression_Orig!H16</f>
-        <v>0.84099999999999997</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="7" customHeight="1">
@@ -2795,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
@@ -2839,25 +2853,25 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>-7.4999999999999997E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G2">
-        <v>-0.53</v>
-      </c>
-      <c r="H2">
-        <v>-2.4089999999999998</v>
+        <v>-2.0249999999999999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>108</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -2869,25 +2883,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="B3">
-        <v>-2.1890000000000001</v>
+        <v>-1.9690000000000001</v>
       </c>
       <c r="C3">
-        <v>-0.21299999999999999</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="D3">
-        <v>-0.127</v>
+        <v>-0.121</v>
       </c>
       <c r="E3">
-        <v>-0.13900000000000001</v>
+        <v>-0.125</v>
       </c>
       <c r="F3">
-        <v>-2.4740000000000002</v>
+        <v>-2.2240000000000002</v>
       </c>
       <c r="G3">
-        <v>-3.0790000000000002</v>
+        <v>-2.891</v>
       </c>
       <c r="H3">
-        <v>-1.5920000000000001</v>
+        <v>-1.353</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -2902,16 +2916,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G4">
-        <v>0.13400000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -2923,16 +2937,16 @@
     </row>
     <row r="5" spans="1:15">
       <c r="B5">
-        <v>-0.155</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="F5">
-        <v>-0.19500000000000001</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="G5">
-        <v>-0.247</v>
+        <v>-0.23200000000000001</v>
       </c>
       <c r="H5">
-        <v>-0.11899999999999999</v>
+        <v>-0.10100000000000001</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -2947,16 +2961,16 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G6">
-        <v>0.17699999999999999</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="H6">
-        <v>0.47199999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -2968,16 +2982,16 @@
     </row>
     <row r="7" spans="1:15">
       <c r="B7">
-        <v>-0.46600000000000003</v>
+        <v>-0.41899999999999998</v>
       </c>
       <c r="F7">
-        <v>-0.53300000000000003</v>
+        <v>-0.47899999999999998</v>
       </c>
       <c r="G7">
-        <v>-0.66800000000000004</v>
+        <v>-0.628</v>
       </c>
       <c r="H7">
-        <v>-0.35299999999999998</v>
+        <v>-0.3</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -2992,10 +3006,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F8">
-        <v>7.0000000000000001E-3</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -3007,10 +3021,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="C9">
-        <v>-0.69399999999999995</v>
+        <v>-0.65600000000000003</v>
       </c>
       <c r="F9">
-        <v>-0.65</v>
+        <v>-0.58399999999999996</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3025,10 +3039,10 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -3040,10 +3054,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="D11">
-        <v>-0.28199999999999997</v>
+        <v>-0.26900000000000002</v>
       </c>
       <c r="G11">
-        <v>-0.57099999999999995</v>
+        <v>-0.53600000000000003</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3058,10 +3072,10 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -3073,10 +3087,10 @@
     </row>
     <row r="13" spans="1:15">
       <c r="E13">
-        <v>-0.27100000000000002</v>
+        <v>-0.24399999999999999</v>
       </c>
       <c r="H13">
-        <v>-0.32500000000000001</v>
+        <v>-0.27600000000000002</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -3091,25 +3105,25 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.46300000000000002</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="C14">
-        <v>0.621</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="D14">
-        <v>0.373</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="E14">
-        <v>0.307</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="F14">
-        <v>0.47399999999999998</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G14">
-        <v>0.38500000000000001</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="H14">
-        <v>0.27</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -3124,25 +3138,25 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.56799999999999995</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="C15">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="D15">
-        <v>0.70799999999999996</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="E15">
-        <v>0.80200000000000005</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="F15">
-        <v>0.56799999999999995</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="G15">
-        <v>0.71499999999999997</v>
+        <v>0.72</v>
       </c>
       <c r="H15">
-        <v>0.86</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -3157,25 +3171,25 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>0.53100000000000003</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="C16">
-        <v>0.156</v>
+        <v>0.158</v>
       </c>
       <c r="D16">
-        <v>0.69599999999999995</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="E16">
-        <v>0.79400000000000004</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="F16">
-        <v>0.50900000000000001</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="G16">
-        <v>0.67600000000000005</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="H16">
-        <v>0.84099999999999997</v>
+        <v>0.872</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -3190,25 +3204,25 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>15.134</v>
+        <v>18.041</v>
       </c>
       <c r="C17">
-        <v>5.6280000000000001</v>
+        <v>5.702</v>
       </c>
       <c r="D17">
-        <v>58.116</v>
+        <v>57.246000000000002</v>
       </c>
       <c r="E17">
-        <v>97.436999999999998</v>
+        <v>110.831</v>
       </c>
       <c r="F17">
-        <v>9.6509999999999998</v>
+        <v>11.513</v>
       </c>
       <c r="G17">
-        <v>18.375</v>
+        <v>18.821999999999999</v>
       </c>
       <c r="H17">
-        <v>45.094000000000001</v>
+        <v>57.774999999999999</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -3226,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.5999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3300,7 +3314,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3465,7 +3479,7 @@
         <v>deu</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" s="24">
         <f>Top10_Orig!B2</f>
@@ -3478,7 +3492,7 @@
         <v>fra</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" s="24">
         <f>Top10_Orig!B3</f>
@@ -3491,7 +3505,7 @@
         <v>rus</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G16" s="24">
         <f>Top10_Orig!B4</f>
@@ -3504,7 +3518,7 @@
         <v>spa</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G17" s="24">
         <f>Top10_Orig!B5</f>
@@ -3517,7 +3531,7 @@
         <v>ita</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G18" s="24">
         <f>Top10_Orig!B6</f>
@@ -3530,7 +3544,7 @@
         <v>jpn</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="24">
         <f>Top10_Orig!B7</f>
@@ -3543,7 +3557,7 @@
         <v>nld</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20" s="24">
         <f>Top10_Orig!B8</f>
@@ -3556,7 +3570,7 @@
         <v>ces</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="G21" s="24">
         <f>Top10_Orig!B9</f>
@@ -3569,7 +3583,7 @@
         <v>zho</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" s="24">
         <f>Top10_Orig!B10</f>
@@ -3581,8 +3595,8 @@
         <f>Top10_Orig!A11</f>
         <v>nor</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>85</v>
+      <c r="F23" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="G23" s="25">
         <f>Top10_Orig!B11</f>
@@ -3933,7 +3947,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C1" sqref="C1:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
